--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_100.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1304112554112554</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['C:7', 'F', 'F', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.38, 7.84)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:15.580000', '0:01:32.280000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:21.410000', '0:00:26.860000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0832708177044261</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'A:7', 'D'], ['E', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1018099547511312</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['C', 'F', 'Bb']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(64.871315, 72.777709), (25.850181, 31.898979)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.737518, 22.996837), (2.156928, 7.265318)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2287581699346405</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
+          <t>[['D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(53.551034, 60.67956)]</t>
+          <t>[['Eb', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(57.152004, 63.328512)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:43.076000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05966228893058161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
+          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.52, 11.6)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.66, 38.43)]</t>
+          <t>[('0:00:49.610000', '0:00:55.160000'), ('0:00:29.470000', '0:00:32.220000'), ('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:06.120000', '0:00:11.620000'), ('0:00:55.400000', '0:01:03.680000'), ('0:00:16.020000', '0:00:22.500000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2828282828282828</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(80.08, 87.62)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.38, 23.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12), (59.5, 65.04)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9), (15.3, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06466559226430299</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A'], ['E', 'E/3', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db'], ['Ab', 'Ab', 'Db']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(65.956303, 75.755124), (27.610855, 30.035034)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(131.61, 134.27), (123.03, 126.19)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4022988505747126</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(33.814625, 37.738798)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.54, 14.56)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06401617250673855</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G/5']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.707687, 24.062244)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(94.0, 102.97)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2240853658536585</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E/4', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.779, 9.34)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.139614, 27.777437)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min/5', 'C:min', 'F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min', 'A:min', 'E:min', 'A:min', 'E:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(118.794, 129.243)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.506, 16.92)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.8, 2.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
